--- a/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_latest.xlsx
@@ -819,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.28840642761063</v>
+        <v>2.119006755643053</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -827,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2.36872757961063</v>
+        <v>2.199327907643053</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -835,10 +835,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2.37308545861063</v>
+        <v>2.203685786643053</v>
       </c>
       <c r="D4">
-        <v>9.271615593904569</v>
+        <v>9.24859090856763</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -846,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.91484851961063</v>
+        <v>2.745448847643053</v>
       </c>
       <c r="D5">
-        <v>9.51671356190457</v>
+        <v>9.493688876567631</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -857,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.26855798861063</v>
+        <v>2.099158316643053</v>
       </c>
       <c r="D6">
-        <v>7.956819980904569</v>
+        <v>7.933795295567631</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -868,10 +868,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.91630522061063</v>
+        <v>1.746905548643053</v>
       </c>
       <c r="C7">
-        <v>8.08222989690457</v>
+        <v>8.059205211567631</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -879,10 +879,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.98944742861063</v>
+        <v>1.820047756643053</v>
       </c>
       <c r="C8">
-        <v>7.296637484904569</v>
+        <v>7.273612799567631</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -890,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.2597275516106299</v>
+        <v>0.09032787964305289</v>
       </c>
       <c r="C9">
-        <v>4.43535231190457</v>
+        <v>4.412327626567631</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -901,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>4.931351219904569</v>
+        <v>4.908326534567631</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -909,10 +909,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1.06928956290457</v>
+        <v>1.046264877567631</v>
       </c>
       <c r="D11">
-        <v>-11.52100071318459</v>
+        <v>-11.49394992953368</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -920,10 +920,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1.44536411090457</v>
+        <v>1.422339425567631</v>
       </c>
       <c r="D12">
-        <v>-10.50835838918459</v>
+        <v>-10.48130760553368</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -931,10 +931,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.641044510904569</v>
+        <v>2.618019825567631</v>
       </c>
       <c r="C13">
-        <v>-8.221931482184589</v>
+        <v>-8.19488069853368</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -942,10 +942,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2.689977566904569</v>
+        <v>2.666952881567631</v>
       </c>
       <c r="C14">
-        <v>-7.737997443184589</v>
+        <v>-7.71094665953368</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -953,7 +953,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>-2.952361591184588</v>
+        <v>-2.92531080753368</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -961,10 +961,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>-3.779256593184589</v>
+        <v>-3.75220580953368</v>
       </c>
       <c r="D16">
-        <v>-1.184716308655492</v>
+        <v>-1.016499451284835</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -972,10 +972,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-2.297890222184589</v>
+        <v>-2.27083943853368</v>
       </c>
       <c r="D17">
-        <v>-0.513265805839344</v>
+        <v>-0.3450489484686868</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -983,10 +983,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>-1.973160161184588</v>
+        <v>-1.94610937753368</v>
       </c>
       <c r="D18">
-        <v>-1.107524851152395</v>
+        <v>-0.9393079937817378</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -994,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-2.684228510184589</v>
+        <v>-2.65717772653368</v>
       </c>
       <c r="C19">
-        <v>-2.27404673913916</v>
+        <v>-2.105829881768503</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1005,10 +1005,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-2.778435767184589</v>
+        <v>-2.75138498353368</v>
       </c>
       <c r="C20">
-        <v>-2.63826059478266</v>
+        <v>-2.470043737412003</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1016,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>-3.12146043388665</v>
+        <v>-2.953243576515993</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1024,10 +1024,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>-3.20791493759006</v>
+        <v>-3.039698080219403</v>
       </c>
       <c r="D22">
-        <v>1.935992942318626</v>
+        <v>1.438921982009379</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1035,10 +1035,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>-2.27992021534256</v>
+        <v>-2.111703357971903</v>
       </c>
       <c r="D23">
-        <v>2.537428985318626</v>
+        <v>2.040358025009379</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1046,10 +1046,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>-2.23082291871698</v>
+        <v>-2.062606061346323</v>
       </c>
       <c r="D24">
-        <v>2.748102751318626</v>
+        <v>2.251031791009379</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1057,10 +1057,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-1.850099980843619</v>
+        <v>-1.681883123472962</v>
       </c>
       <c r="C25">
-        <v>3.315140664318626</v>
+        <v>2.818069704009379</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1068,10 +1068,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-1.084957599954628</v>
+        <v>-0.9167407425839711</v>
       </c>
       <c r="C26">
-        <v>2.589396046318626</v>
+        <v>2.092325086009379</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1079,7 +1079,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>2.480899569318626</v>
+        <v>1.983828609009379</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1087,10 +1087,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>2.700618766318626</v>
+        <v>2.203547806009379</v>
       </c>
       <c r="D28">
-        <v>-1.856246308724175</v>
+        <v>-1.659867292582316</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1098,10 +1098,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>2.410019061318626</v>
+        <v>1.912948101009379</v>
       </c>
       <c r="D29">
-        <v>-1.960446371202797</v>
+        <v>-1.764067355060938</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1109,10 +1109,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>2.926927441318626</v>
+        <v>2.429856481009379</v>
       </c>
       <c r="D30">
-        <v>-1.395977983716536</v>
+        <v>-1.199598967574677</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1120,10 +1120,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>2.363938981318626</v>
+        <v>1.866868021009379</v>
       </c>
       <c r="C31">
-        <v>-1.609184863485576</v>
+        <v>-1.412805847343717</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1131,10 +1131,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1.846096470318626</v>
+        <v>1.349025510009379</v>
       </c>
       <c r="C32">
-        <v>-1.092144970525496</v>
+        <v>-0.8957659543836369</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1142,7 +1142,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>-0.8266336761815958</v>
+        <v>-0.630254660039737</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1150,10 +1150,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>-0.9838295308138858</v>
+        <v>-0.787450514672027</v>
       </c>
       <c r="D34">
-        <v>0.4912452205748881</v>
+        <v>0.4432709353245859</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1161,10 +1161,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>-1.87298485540222</v>
+        <v>-1.676605839260361</v>
       </c>
       <c r="D35">
-        <v>0.9751860335748881</v>
+        <v>0.9272117483245859</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1172,10 +1172,10 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>-1.689656746811223</v>
+        <v>-1.493277730669364</v>
       </c>
       <c r="D36">
-        <v>1.274538491574888</v>
+        <v>1.226564206324586</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-1.501992626578346</v>
+        <v>-1.305613610436487</v>
       </c>
       <c r="C37">
-        <v>0.5492701585748881</v>
+        <v>0.501295873324586</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1194,10 +1194,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-1.587599909437946</v>
+        <v>-1.391220893296087</v>
       </c>
       <c r="C38">
-        <v>0.4856729655748881</v>
+        <v>0.437698680324586</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1205,7 +1205,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>0.8560855675748881</v>
+        <v>0.808111282324586</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1213,10 +1213,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>0.4759120815748881</v>
+        <v>0.4279377963245859</v>
       </c>
       <c r="D40">
-        <v>-0.6183139075789075</v>
+        <v>-0.5400899636021528</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1224,10 +1224,10 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>0.3090965955748881</v>
+        <v>0.2611223103245859</v>
       </c>
       <c r="D41">
-        <v>-0.6290592005789074</v>
+        <v>-0.5508352566021527</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1235,10 +1235,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>0.3651208545748881</v>
+        <v>0.317146569324586</v>
       </c>
       <c r="D42">
-        <v>-0.6607288325789075</v>
+        <v>-0.5825048886021528</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1246,10 +1246,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.1016454024251119</v>
+        <v>-0.1496196876754141</v>
       </c>
       <c r="C43">
-        <v>-1.540961684578907</v>
+        <v>-1.462737740602153</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1257,10 +1257,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.0899518274251119</v>
+        <v>-0.137926112675414</v>
       </c>
       <c r="C44">
-        <v>-1.812921019578907</v>
+        <v>-1.734697075602153</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1268,7 +1268,7 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>-1.931648243578908</v>
+        <v>-1.853424299602153</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1276,10 +1276,10 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>-1.934965904578907</v>
+        <v>-1.856741960602153</v>
       </c>
       <c r="D46">
-        <v>0.7982563684919685</v>
+        <v>0.3019717448838731</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1287,10 +1287,10 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>-1.927085794578907</v>
+        <v>-1.848861850602153</v>
       </c>
       <c r="D47">
-        <v>0.7889075274919685</v>
+        <v>0.2926229038838731</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1298,10 +1298,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>-0.8621375925789074</v>
+        <v>-0.7839136486021527</v>
       </c>
       <c r="D48">
-        <v>0.4729967304919684</v>
+        <v>-0.02328789311612689</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1309,10 +1309,10 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>-0.7244188005789074</v>
+        <v>-0.6461948566021527</v>
       </c>
       <c r="D49">
-        <v>0.5125376104919684</v>
+        <v>0.01625298688387311</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1320,10 +1320,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.4119084425789074</v>
+        <v>-0.3336844986021527</v>
       </c>
       <c r="C50">
-        <v>1.098839644491969</v>
+        <v>0.6025550208838731</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1331,10 +1331,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.4631350915789074</v>
+        <v>-0.3849111476021527</v>
       </c>
       <c r="C51">
-        <v>1.426915854491969</v>
+        <v>0.9306312308838732</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>1.883011956491969</v>
+        <v>1.386727332883873</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1350,10 +1350,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>2.229526673491968</v>
+        <v>1.733242049883873</v>
       </c>
       <c r="D53">
-        <v>0.4353978397589461</v>
+        <v>0.2645452997460908</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1361,10 +1361,10 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>2.094574267491968</v>
+        <v>1.598289643883873</v>
       </c>
       <c r="D54">
-        <v>0.3216375757589461</v>
+        <v>0.1507850357460907</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1372,10 +1372,10 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>0.5618416054919685</v>
+        <v>0.06555698188387316</v>
       </c>
       <c r="D55">
-        <v>-0.6648555192410539</v>
+        <v>-0.8357080592539092</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1383,10 +1383,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>0.5733492334919685</v>
+        <v>0.0770646098838732</v>
       </c>
       <c r="C56">
-        <v>-0.7543333132410539</v>
+        <v>-0.9251858532539092</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1394,10 +1394,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>0.5879638664919685</v>
+        <v>0.09167924288387319</v>
       </c>
       <c r="C57">
-        <v>0.1187480707589461</v>
+        <v>-0.0521044692539093</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1405,7 +1405,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>0.3217955717589461</v>
+        <v>0.1509430317460907</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1413,10 +1413,10 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>0.483679177758946</v>
+        <v>0.3128266377460907</v>
       </c>
       <c r="D59">
-        <v>-0.8843750902619978</v>
+        <v>-0.5859650259931832</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1424,10 +1424,10 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>0.9472960387589461</v>
+        <v>0.7764434987460908</v>
       </c>
       <c r="D60">
-        <v>-0.9837738512619978</v>
+        <v>-0.6853637869931832</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1435,10 +1435,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>0.617602671758946</v>
+        <v>0.4467501317460907</v>
       </c>
       <c r="D61">
-        <v>-1.067949458261998</v>
+        <v>-0.7695393939931834</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1446,10 +1446,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0.5278836337589461</v>
+        <v>0.3570310937460908</v>
       </c>
       <c r="C62">
-        <v>-0.6194928042619978</v>
+        <v>-0.3210827399931833</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1457,10 +1457,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0.5466956247589461</v>
+        <v>0.3758430847460907</v>
       </c>
       <c r="C63">
-        <v>-1.484046906261998</v>
+        <v>-1.185636841993183</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>-1.568600314261998</v>
+        <v>-1.270190249993183</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1476,10 +1476,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>-1.221825858261998</v>
+        <v>-0.9234157939931833</v>
       </c>
       <c r="D65">
-        <v>0.8639502458727975</v>
+        <v>0.7007593354088806</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1487,10 +1487,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>-0.8699247842619979</v>
+        <v>-0.5715147199931834</v>
       </c>
       <c r="D66">
-        <v>0.8779691898727975</v>
+        <v>0.7147782794088806</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1498,10 +1498,10 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>-1.162278535261998</v>
+        <v>-0.8638684709931833</v>
       </c>
       <c r="D67">
-        <v>0.6263983808727974</v>
+        <v>0.4632074704088806</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1509,10 +1509,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>-1.061803784261998</v>
+        <v>-0.7633937199931833</v>
       </c>
       <c r="C68">
-        <v>0.6989521698727974</v>
+        <v>0.5357612594088805</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1520,10 +1520,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>-1.110523463261998</v>
+        <v>-0.8121133989931834</v>
       </c>
       <c r="C69">
-        <v>0.4383138508727974</v>
+        <v>0.2751229404088806</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1531,7 +1531,7 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>0.4665193448727974</v>
+        <v>0.3033284344088806</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1539,10 +1539,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>0.3412818978727974</v>
+        <v>0.1780909874088806</v>
       </c>
       <c r="D71">
-        <v>0.2600187531254733</v>
+        <v>0.876933787738463</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1550,10 +1550,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>0.4350410848727974</v>
+        <v>0.2718501744088806</v>
       </c>
       <c r="D72">
-        <v>0.4934237941254733</v>
+        <v>1.110338828738463</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1561,10 +1561,10 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>0.7638936518727975</v>
+        <v>0.6007027414088806</v>
       </c>
       <c r="D73">
-        <v>0.4543303531254733</v>
+        <v>1.071245387738463</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1572,10 +1572,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>0.9750882538727974</v>
+        <v>0.8118973434088805</v>
       </c>
       <c r="D74">
-        <v>0.4791207701254733</v>
+        <v>1.096035804738463</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1583,10 +1583,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>0.6636338688727974</v>
+        <v>0.5004429584088805</v>
       </c>
       <c r="C75">
-        <v>0.5162715611254733</v>
+        <v>1.133186595738463</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1594,10 +1594,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>0.6849263828727974</v>
+        <v>0.5217354724088806</v>
       </c>
       <c r="C76">
-        <v>0.5559279831254733</v>
+        <v>1.172843017738463</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1605,7 +1605,7 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>0.5868413251254733</v>
+        <v>1.203756359738463</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1613,10 +1613,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>0.5330800751254733</v>
+        <v>1.149995109738463</v>
       </c>
       <c r="D78">
-        <v>0.3435455343902407</v>
+        <v>0.2672752237008458</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1624,10 +1624,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>0.3956207981254733</v>
+        <v>1.012535832738463</v>
       </c>
       <c r="D79">
-        <v>0.3027745043902407</v>
+        <v>0.2265041937008457</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1635,10 +1635,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>0.4202388511254733</v>
+        <v>1.037153885738463</v>
       </c>
       <c r="D80">
-        <v>0.3437833963902407</v>
+        <v>0.2675130857008458</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1646,10 +1646,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>0.5374172921254733</v>
+        <v>1.154332326738463</v>
       </c>
       <c r="C81">
-        <v>0.7039462753902407</v>
+        <v>0.6276759647008457</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1657,10 +1657,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0.5833569371254733</v>
+        <v>1.200271971738463</v>
       </c>
       <c r="C82">
-        <v>0.9384483943902407</v>
+        <v>0.8621780837008458</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1668,7 +1668,7 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>0.4725700283902407</v>
+        <v>0.3962997177008458</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1676,10 +1676,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>-0.008055520609759281</v>
+        <v>-0.08432583129915423</v>
       </c>
       <c r="D84">
-        <v>-1.001573991656491</v>
+        <v>-0.810734297</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1687,10 +1687,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>0.0564678743902407</v>
+        <v>-0.01980243629915425</v>
       </c>
       <c r="D85">
-        <v>-1.005296299656491</v>
+        <v>-0.8144566049999999</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1698,10 +1698,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>-0.1664253806097593</v>
+        <v>-0.2426956912991542</v>
       </c>
       <c r="D86">
-        <v>-0.9071933926564913</v>
+        <v>-0.716353698</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1709,10 +1709,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>-0.6892856266097593</v>
+        <v>-0.7655559372991543</v>
       </c>
       <c r="D87">
-        <v>-1.105534795656491</v>
+        <v>-0.914695101</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1720,10 +1720,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.1319480686097593</v>
+        <v>-0.2082183792991542</v>
       </c>
       <c r="C88">
-        <v>0.1176187333435087</v>
+        <v>0.308458428</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1731,10 +1731,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.1367167416097593</v>
+        <v>-0.2129870522991542</v>
       </c>
       <c r="C89">
-        <v>-0.2530132116564913</v>
+        <v>-0.062173517</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1742,7 +1742,7 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>-0.05311316665649132</v>
+        <v>0.137726528</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1750,10 +1750,10 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>-0.2976517466564913</v>
+        <v>-0.106812052</v>
       </c>
       <c r="D91">
-        <v>0.106721173205503</v>
+        <v>0.01161465989985261</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1761,10 +1761,10 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>-0.6653428436564913</v>
+        <v>-0.474503149</v>
       </c>
       <c r="D92">
-        <v>0.248044304769696</v>
+        <v>0.1529377914640456</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1772,10 +1772,10 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>-0.7302282616564914</v>
+        <v>-0.539388567</v>
       </c>
       <c r="D93">
-        <v>0.2715352125018332</v>
+        <v>0.1764286991961828</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1783,10 +1783,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.5209624116564913</v>
+        <v>-0.330122717</v>
       </c>
       <c r="C94">
-        <v>0.630322716343498</v>
+        <v>0.5352162030378476</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1794,10 +1794,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.5742589806564913</v>
+        <v>-0.383419286</v>
       </c>
       <c r="C95">
-        <v>0.505302324315136</v>
+        <v>0.4101958110094856</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1805,7 +1805,7 @@
         <v>97</v>
       </c>
       <c r="C96">
-        <v>0.3497791006487767</v>
+        <v>0.2546725873431263</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1813,10 +1813,10 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>0.4231596065441377</v>
+        <v>0.3280530932384873</v>
       </c>
       <c r="D97">
-        <v>-0.1476064888251601</v>
+        <v>0.1964786358111976</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1824,10 +1824,10 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>0.08081382867431397</v>
+        <v>-0.01429268463133643</v>
       </c>
       <c r="D98">
-        <v>0.01668854517483986</v>
+        <v>0.3607736698111976</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1835,10 +1835,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>-0.158111615528519</v>
+        <v>-0.2532181288341694</v>
       </c>
       <c r="D99">
-        <v>-0.1187233888251601</v>
+        <v>0.2253617358111976</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1846,10 +1846,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>0.05441949137173802</v>
+        <v>-0.04068702193391238</v>
       </c>
       <c r="C100">
-        <v>-0.1281073088251601</v>
+        <v>0.2159778158111976</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1857,10 +1857,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>0.006930188795156</v>
+        <v>-0.0881763245104944</v>
       </c>
       <c r="C101">
-        <v>-0.4445153808251601</v>
+        <v>-0.1004302561888024</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1868,7 +1868,7 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>-0.3611941828251601</v>
+        <v>-0.0171090581888024</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1876,10 +1876,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>-0.4756413308251601</v>
+        <v>-0.1315562061888024</v>
       </c>
       <c r="D103">
-        <v>0.461783159600231</v>
+        <v>0.4244005293199388</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1887,10 +1887,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>-0.75739379382516</v>
+        <v>-0.4133086691888024</v>
       </c>
       <c r="D104">
-        <v>0.458379048600231</v>
+        <v>0.4209964183199388</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1898,10 +1898,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>-0.4488294608251601</v>
+        <v>-0.1047443361888024</v>
       </c>
       <c r="D105">
-        <v>0.587930132600231</v>
+        <v>0.5505475023199389</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1909,10 +1909,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>-0.6854126808251602</v>
+        <v>-0.3413275561888024</v>
       </c>
       <c r="C106">
-        <v>1.141984823600231</v>
+        <v>1.104602193319939</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1920,10 +1920,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>-0.6707153078251601</v>
+        <v>-0.3266301831888024</v>
       </c>
       <c r="C107">
-        <v>1.264116200600231</v>
+        <v>1.226733570319939</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1931,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>0.774520604600231</v>
+        <v>0.7371379743199389</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1939,10 +1939,10 @@
         <v>110</v>
       </c>
       <c r="C109">
-        <v>1.054346858600231</v>
+        <v>1.016964228319939</v>
       </c>
       <c r="D109">
-        <v>0.2459967371659499</v>
+        <v>0.3320304208968201</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1950,10 +1950,10 @@
         <v>111</v>
       </c>
       <c r="C110">
-        <v>0.6705448586002309</v>
+        <v>0.6331622283199388</v>
       </c>
       <c r="D110">
-        <v>0.3576174791659499</v>
+        <v>0.4436511628968201</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1961,10 +1961,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>0.365107245600231</v>
+        <v>0.3277246153199388</v>
       </c>
       <c r="D111">
-        <v>-0.0057478618340501</v>
+        <v>0.08028582189682007</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1972,10 +1972,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>0.204204533600231</v>
+        <v>0.1668219033199388</v>
       </c>
       <c r="C112">
-        <v>-0.6803646578340501</v>
+        <v>-0.5943309741031799</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1983,10 +1983,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>0.123869923600231</v>
+        <v>0.08648729331993882</v>
       </c>
       <c r="C113">
-        <v>-1.06465819683405</v>
+        <v>-0.9786245131031799</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1994,7 +1994,7 @@
         <v>115</v>
       </c>
       <c r="C114">
-        <v>-0.68503989883405</v>
+        <v>-0.5990062151031799</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2002,10 +2002,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>-0.66448220283405</v>
+        <v>-0.5784485191031798</v>
       </c>
       <c r="D115">
-        <v>0.4627417469122814</v>
+        <v>0.07992519753787367</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2013,10 +2013,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>-0.97735028683405</v>
+        <v>-0.8913166031031798</v>
       </c>
       <c r="D116">
-        <v>0.5305939159122814</v>
+        <v>0.1477773665378737</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2024,7 +2024,7 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>-0.8265049038340502</v>
+        <v>-0.7404712201031799</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2032,7 +2032,7 @@
         <v>119</v>
       </c>
       <c r="C118">
-        <v>0.9453700269122813</v>
+        <v>0.5625534775378737</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2040,10 +2040,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-0.79049133083405</v>
+        <v>-0.7044576471031798</v>
       </c>
       <c r="C119">
-        <v>1.067725091912281</v>
+        <v>0.6849085425378737</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2051,10 +2051,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>-0.75160314083405</v>
+        <v>-0.6655694571031798</v>
       </c>
       <c r="C120">
-        <v>1.066693834912281</v>
+        <v>0.6838772855378736</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2062,7 +2062,7 @@
         <v>122</v>
       </c>
       <c r="C121">
-        <v>0.9978217259122815</v>
+        <v>0.6150051765378737</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2070,10 +2070,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>1.031832600912281</v>
+        <v>0.6490160515378737</v>
       </c>
       <c r="D122">
-        <v>-0.3045353667750048</v>
+        <v>-0.1991045388566441</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2081,10 +2081,10 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>0.9283890419122813</v>
+        <v>0.5455724925378737</v>
       </c>
       <c r="D123">
-        <v>-0.4295789587750048</v>
+        <v>-0.3241481308566441</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2092,10 +2092,10 @@
         <v>125</v>
       </c>
       <c r="C124">
-        <v>0.3360611849122814</v>
+        <v>-0.0467553644621263</v>
       </c>
       <c r="D124">
-        <v>-0.3578877577750048</v>
+        <v>-0.2524569298566441</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2103,10 +2103,10 @@
         <v>126</v>
       </c>
       <c r="C125">
-        <v>-0.08248294508771858</v>
+        <v>-0.4652994944621263</v>
       </c>
       <c r="D125">
-        <v>-0.6612705907750048</v>
+        <v>-0.5558397628566442</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2114,10 +2114,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>0.3678317189122814</v>
+        <v>-0.01498483046212631</v>
       </c>
       <c r="C126">
-        <v>-0.1341293717750048</v>
+        <v>-0.02869854385664411</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2125,10 +2125,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>0.4790155979122814</v>
+        <v>0.09619904853787367</v>
       </c>
       <c r="C127">
-        <v>-0.3097100027750048</v>
+        <v>-0.2042791748566441</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2136,85 +2136,124 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>-0.3737868047750048</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>-0.2683559768566441</v>
+      </c>
+      <c r="D128">
+        <v>0.5614898640156477</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C129">
-        <v>-0.0998215807750048</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>0.005609247143355867</v>
+      </c>
+      <c r="D129">
+        <v>0.7804486233837438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C130">
-        <v>-0.09603892277500481</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>0.009391905143355861</v>
+      </c>
+      <c r="D130">
+        <v>0.7918746591162638</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C131">
-        <v>-0.07958040477500478</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>0.02585042314335589</v>
+      </c>
+      <c r="D131">
+        <v>0.7115302101128926</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C132">
-        <v>0.1417440962249952</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>0.2471749241433559</v>
+      </c>
+      <c r="D132">
+        <v>0.7732527029753358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B133">
-        <v>0.04818924522499524</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>0.1536200731433559</v>
+      </c>
+      <c r="C133">
+        <v>0.5947585845621888</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B134">
-        <v>0.1373663892249952</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>0.2427972171433558</v>
+      </c>
+      <c r="C134">
+        <v>-0.1471494033888783</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="C135">
+        <v>0.2315426859737066</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="C136">
+        <v>0.5186180303197108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="C137">
+        <v>0.5462623555331837</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="C138">
+        <v>0.3054124296933831</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="C139">
+        <v>0.3912781359200057</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>141</v>
+      </c>
+      <c r="B140">
+        <v>0.09995295491779371</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Qminus1</t>
   </si>
@@ -440,6 +440,21 @@
   </si>
   <si>
     <t>2025-07-07_diff</t>
+  </si>
+  <si>
+    <t>2025-07-25_diff</t>
+  </si>
+  <si>
+    <t>2025-08-07_diff</t>
+  </si>
+  <si>
+    <t>2025-08-22_diff</t>
+  </si>
+  <si>
+    <t>2025-08-25_diff</t>
+  </si>
+  <si>
+    <t>2025-09-08_diff</t>
   </si>
 </sst>
 </file>
@@ -797,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2138,9 +2153,6 @@
       <c r="C128">
         <v>-0.2683559768566441</v>
       </c>
-      <c r="D128">
-        <v>0.5614898640156477</v>
-      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
@@ -2150,7 +2162,7 @@
         <v>0.005609247143355867</v>
       </c>
       <c r="D129">
-        <v>0.7804486233837438</v>
+        <v>0.7804486234241067</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2161,7 +2173,7 @@
         <v>0.009391905143355861</v>
       </c>
       <c r="D130">
-        <v>0.7918746591162638</v>
+        <v>0.7918746594241067</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2172,7 +2184,7 @@
         <v>0.02585042314335589</v>
       </c>
       <c r="D131">
-        <v>0.7115302101128926</v>
+        <v>0.7115302104241067</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2183,7 +2195,7 @@
         <v>0.2471749241433559</v>
       </c>
       <c r="D132">
-        <v>0.7732527029753358</v>
+        <v>0.7732527034241068</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2194,7 +2206,7 @@
         <v>0.1536200731433559</v>
       </c>
       <c r="C133">
-        <v>0.5947585845621888</v>
+        <v>0.5947585844241068</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2205,7 +2217,7 @@
         <v>0.2427972171433558</v>
       </c>
       <c r="C134">
-        <v>-0.1471494033888783</v>
+        <v>-0.1471494035758933</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2213,7 +2225,7 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>0.2315426859737066</v>
+        <v>0.2315426864241067</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2221,7 +2233,7 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>0.5186180303197108</v>
+        <v>0.5186180304241067</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2229,7 +2241,7 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>0.5462623555331837</v>
+        <v>0.5462623554241067</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2237,7 +2249,7 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>0.3054124296933831</v>
+        <v>0.3054124294241067</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2245,7 +2257,7 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>0.3912781359200057</v>
+        <v>0.3912781354241067</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2253,7 +2265,35 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>0.09995295491779371</v>
+        <v>0.0999529544241067</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>0.05603945542410671</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_latest.xlsx
@@ -2162,7 +2162,7 @@
         <v>0.005609247143355867</v>
       </c>
       <c r="D129">
-        <v>0.7804486234241067</v>
+        <v>0.7136611031493167</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2173,7 +2173,7 @@
         <v>0.009391905143355861</v>
       </c>
       <c r="D130">
-        <v>0.7918746594241067</v>
+        <v>0.7250871391493168</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>0.02585042314335589</v>
       </c>
       <c r="D131">
-        <v>0.7115302104241067</v>
+        <v>0.6447426901493167</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>0.2471749241433559</v>
       </c>
       <c r="D132">
-        <v>0.7732527034241068</v>
+        <v>0.7064651831493167</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2206,7 +2206,7 @@
         <v>0.1536200731433559</v>
       </c>
       <c r="C133">
-        <v>0.5947585844241068</v>
+        <v>0.5279710641493167</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2217,7 +2217,7 @@
         <v>0.2427972171433558</v>
       </c>
       <c r="C134">
-        <v>-0.1471494035758933</v>
+        <v>-0.2139369238506833</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2225,7 +2225,7 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>0.2315426864241067</v>
+        <v>0.1647551661493167</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2233,7 +2233,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>0.5186180304241067</v>
+        <v>0.4518305101493167</v>
+      </c>
+      <c r="D136">
+        <v>0.791995474</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2241,7 +2244,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>0.5462623554241067</v>
+        <v>0.4794748351493167</v>
+      </c>
+      <c r="D137">
+        <v>0.788120887</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2249,7 +2255,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>0.3054124294241067</v>
+        <v>0.2386249091493167</v>
+      </c>
+      <c r="D138">
+        <v>0.597740902</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2257,7 +2266,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>0.3912781354241067</v>
+        <v>0.3244906151493167</v>
+      </c>
+      <c r="D139">
+        <v>0.620527487</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2265,7 +2277,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>0.0999529544241067</v>
+        <v>0.03316543414931669</v>
+      </c>
+      <c r="C140">
+        <v>0.241887844</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2273,27 +2288,42 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>0.05603945542410671</v>
+        <v>-0.0107480648506833</v>
+      </c>
+      <c r="C141">
+        <v>0.331651578</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="C142">
+        <v>0.154182215</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="C143">
+        <v>0.166899468</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="C144">
+        <v>0.042359665</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="C145">
+        <v>0.266698307</v>
       </c>
     </row>
   </sheetData>
